--- a/testdata/courseDetails.xlsx
+++ b/testdata/courseDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="60">
   <si>
     <t>IBM Full Stack Software Developer Professional Certificate</t>
   </si>
@@ -201,13 +201,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="150">
+  <fonts count="158">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -985,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1136,6 +1176,14 @@
     <xf numFmtId="0" fontId="147" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="148" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="149" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1153,7 +1201,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="147"/>
+      <c r="C1" s="155"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -1217,7 +1265,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="148"/>
+      <c r="A1" s="156"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -1356,7 +1404,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149"/>
+      <c r="A1" s="157"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">

--- a/testdata/courseDetails.xlsx
+++ b/testdata/courseDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="60">
   <si>
     <t>IBM Full Stack Software Developer Professional Certificate</t>
   </si>
@@ -201,13 +201,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="158">
+  <fonts count="166">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1025,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1184,6 +1224,14 @@
     <xf numFmtId="0" fontId="155" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="156" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="157" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1201,7 +1249,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="155"/>
+      <c r="C1" s="163"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -1265,7 +1313,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="156"/>
+      <c r="A1" s="164"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -1404,7 +1452,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="157"/>
+      <c r="A1" s="165"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
